--- a/picks/Results.xlsx
+++ b/picks/Results.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcoblin/SideProjects/WorldCup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcoblin/SideProjects/WorldCup/picks/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12760" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12760" windowHeight="14740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="122">
   <si>
     <t>Name:</t>
   </si>
@@ -778,6 +778,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -788,24 +806,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1118,7 +1118,7 @@
   <dimension ref="A1:M148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1133,50 +1133,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
     </row>
     <row r="2" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="H3" s="52" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="H3" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="52"/>
+      <c r="I3" s="58"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="53"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
       <c r="H4" s="3" t="s">
         <v>62</v>
       </c>
@@ -1193,13 +1193,13 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
       <c r="H6" s="3" t="s">
         <v>64</v>
       </c>
@@ -1228,9 +1228,9 @@
       <c r="A8" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="F8" t="s">
         <v>47</v>
       </c>
@@ -1245,9 +1245,9 @@
       <c r="A9" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
       <c r="F9" t="s">
         <v>76</v>
       </c>
@@ -1307,28 +1307,28 @@
       <c r="K12" s="18"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="53"/>
+      <c r="D13" s="49"/>
       <c r="E13" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H14" s="52" t="s">
+      <c r="H14" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="I14" s="52"/>
+      <c r="I14" s="58"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
       <c r="H15" s="3" t="s">
         <v>62</v>
       </c>
@@ -1584,22 +1584,22 @@
       <c r="F37" s="19"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C38" s="53" t="s">
+      <c r="C38" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="53"/>
+      <c r="D38" s="49"/>
       <c r="E38" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="37" t="s">
@@ -1815,22 +1815,22 @@
       <c r="F62" s="19"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C63" s="53" t="s">
+      <c r="C63" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="53"/>
+      <c r="D63" s="49"/>
       <c r="E63" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="53" t="s">
+      <c r="A65" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="B65" s="53"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="53"/>
-      <c r="E65" s="53"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="44" t="s">
@@ -1978,7 +1978,9 @@
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
+      <c r="E77" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="F77" s="47" t="s">
         <v>93</v>
       </c>
@@ -1989,7 +1991,9 @@
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
+      <c r="E78" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="F78" s="47" t="s">
         <v>94</v>
       </c>
@@ -1999,7 +2003,9 @@
         <v>91</v>
       </c>
       <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
+      <c r="D79" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="E79" s="7"/>
       <c r="F79" s="47" t="s">
         <v>50</v>
@@ -2522,22 +2528,22 @@
       <c r="H117" s="11"/>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C118" s="53" t="s">
+      <c r="C118" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D118" s="53"/>
+      <c r="D118" s="49"/>
       <c r="E118" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A120" s="53" t="s">
+      <c r="A120" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="B120" s="53"/>
-      <c r="C120" s="53"/>
-      <c r="D120" s="53"/>
-      <c r="E120" s="53"/>
+      <c r="B120" s="49"/>
+      <c r="C120" s="49"/>
+      <c r="D120" s="49"/>
+      <c r="E120" s="49"/>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="59" t="s">
@@ -2903,16 +2909,21 @@
       <c r="D146" s="11"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C148" s="53" t="s">
+      <c r="C148" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D148" s="53"/>
+      <c r="D148" s="49"/>
       <c r="E148" s="8">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="A120:E120"/>
     <mergeCell ref="C148:D148"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="C13:D13"/>
@@ -2929,11 +2940,6 @@
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="A40:E40"/>
     <mergeCell ref="A121:F121"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="A120:E120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/picks/Results.xlsx
+++ b/picks/Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12760" windowHeight="14740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12760" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="122">
   <si>
     <t>Name:</t>
   </si>
@@ -778,6 +778,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -794,18 +806,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1117,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1133,50 +1133,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
     </row>
     <row r="2" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="H3" s="58" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="H3" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="58"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="49"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="57"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
       <c r="H4" s="3" t="s">
         <v>62</v>
       </c>
@@ -1193,13 +1193,13 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
       <c r="H6" s="3" t="s">
         <v>64</v>
       </c>
@@ -1228,9 +1228,9 @@
       <c r="A8" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
       <c r="F8" t="s">
         <v>47</v>
       </c>
@@ -1245,9 +1245,9 @@
       <c r="A9" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="57"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
       <c r="F9" t="s">
         <v>76</v>
       </c>
@@ -1307,28 +1307,28 @@
       <c r="K12" s="18"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="49"/>
+      <c r="D13" s="53"/>
       <c r="E13" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H14" s="58" t="s">
+      <c r="H14" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="I14" s="58"/>
+      <c r="I14" s="52"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
       <c r="H15" s="3" t="s">
         <v>62</v>
       </c>
@@ -1389,7 +1389,9 @@
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="E19" t="s">
         <v>85</v>
       </c>
@@ -1409,7 +1411,9 @@
       <c r="E20" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="H20" s="13" t="s">
         <v>2</v>
       </c>
@@ -1422,11 +1426,15 @@
       <c r="B21" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -1442,23 +1450,31 @@
       <c r="E23" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="7"/>
+      <c r="C24" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="E24" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="E25" t="s">
         <v>71</v>
       </c>
@@ -1487,7 +1503,9 @@
       <c r="B28" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="12"/>
+      <c r="C28" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="D28" t="s">
         <v>49</v>
       </c>
@@ -1504,7 +1522,9 @@
       <c r="E29" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="12"/>
+      <c r="F29" s="12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
@@ -1520,11 +1540,15 @@
       <c r="B31" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="12"/>
+      <c r="C31" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="E31" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="12"/>
+      <c r="F31" s="12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C32" s="19"/>
@@ -1538,24 +1562,32 @@
       <c r="B33" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="45"/>
+      <c r="C33" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="D33" t="s">
         <v>99</v>
       </c>
       <c r="E33" t="s">
         <v>100</v>
       </c>
-      <c r="F33" s="45"/>
+      <c r="F33" s="45" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="45"/>
+      <c r="C34" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="E34" t="s">
         <v>101</v>
       </c>
-      <c r="F34" s="45"/>
+      <c r="F34" s="45" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
@@ -1584,22 +1616,22 @@
       <c r="F37" s="19"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="49"/>
+      <c r="D38" s="53"/>
       <c r="E38" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="37" t="s">
@@ -1653,11 +1685,15 @@
       <c r="B46" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="45"/>
+      <c r="C46" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="E46" t="s">
         <v>10</v>
       </c>
-      <c r="F46" s="45"/>
+      <c r="F46" s="45" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -1683,13 +1719,17 @@
       <c r="E49" t="s">
         <v>11</v>
       </c>
-      <c r="F49" s="45"/>
+      <c r="F49" s="45" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="45"/>
+      <c r="C50" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="E50" t="s">
         <v>71</v>
       </c>
@@ -1718,7 +1758,9 @@
       <c r="B53" t="s">
         <v>91</v>
       </c>
-      <c r="C53" s="45"/>
+      <c r="C53" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="D53" t="s">
         <v>49</v>
       </c>
@@ -1755,7 +1797,9 @@
       <c r="E56" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F56" s="45"/>
+      <c r="F56" s="45" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C57" s="19"/>
@@ -1769,14 +1813,18 @@
       <c r="B58" t="s">
         <v>51</v>
       </c>
-      <c r="C58" s="45"/>
+      <c r="C58" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="D58" t="s">
         <v>99</v>
       </c>
       <c r="E58" t="s">
         <v>100</v>
       </c>
-      <c r="F58" s="45"/>
+      <c r="F58" s="45" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
@@ -1815,22 +1863,22 @@
       <c r="F62" s="19"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C63" s="49" t="s">
+      <c r="C63" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="49"/>
+      <c r="D63" s="53"/>
       <c r="E63" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="49" t="s">
+      <c r="A65" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="B65" s="49"/>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="53"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="44" t="s">
@@ -2019,7 +2067,9 @@
       <c r="B80" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="C80" s="7"/>
+      <c r="C80" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="47" t="s">
@@ -2030,7 +2080,9 @@
       <c r="B81" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C81" s="7"/>
+      <c r="C81" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="47" t="s">
@@ -2045,7 +2097,9 @@
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
+      <c r="E82" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="F82" s="47" t="s">
         <v>14</v>
       </c>
@@ -2061,7 +2115,9 @@
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
+      <c r="E83" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="F83" s="47" t="s">
         <v>101</v>
       </c>
@@ -2074,7 +2130,9 @@
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
+      <c r="E84" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="F84" s="47" t="s">
         <v>102</v>
       </c>
@@ -2085,7 +2143,9 @@
       <c r="B85" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C85" s="7"/>
+      <c r="C85" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="47" t="s">
@@ -2101,7 +2161,9 @@
       <c r="B86" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C86" s="7"/>
+      <c r="C86" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="47" t="s">
@@ -2114,7 +2176,9 @@
       <c r="B87" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="C87" s="7"/>
+      <c r="C87" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="47" t="s">
@@ -2129,7 +2193,9 @@
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
+      <c r="E88" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="F88" s="47" t="s">
         <v>10</v>
       </c>
@@ -2144,7 +2210,9 @@
         <v>87</v>
       </c>
       <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
+      <c r="D89" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="E89" s="7"/>
       <c r="F89" s="47" t="s">
         <v>86</v>
@@ -2156,7 +2224,9 @@
       <c r="B90" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C90" s="7"/>
+      <c r="C90" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="47" t="s">
@@ -2171,7 +2241,9 @@
       </c>
       <c r="C91" s="12"/>
       <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
+      <c r="E91" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="F91" s="47" t="s">
         <v>11</v>
       </c>
@@ -2185,7 +2257,9 @@
       <c r="B92" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C92" s="12"/>
+      <c r="C92" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
       <c r="F92" s="47" t="s">
@@ -2198,7 +2272,9 @@
       <c r="B93" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="C93" s="12"/>
+      <c r="C93" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
       <c r="F93" s="47" t="s">
@@ -2213,7 +2289,9 @@
       </c>
       <c r="C94" s="12"/>
       <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
+      <c r="E94" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="F94" s="47" t="s">
         <v>50</v>
       </c>
@@ -2227,7 +2305,9 @@
       <c r="B95" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C95" s="12"/>
+      <c r="C95" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
       <c r="F95" s="47" t="s">
@@ -2242,7 +2322,9 @@
       </c>
       <c r="C96" s="12"/>
       <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
+      <c r="E96" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="F96" s="47" t="s">
         <v>94</v>
       </c>
@@ -2253,7 +2335,9 @@
       <c r="B97" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="12"/>
+      <c r="C97" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="D97" s="12"/>
       <c r="E97" s="12"/>
       <c r="F97" s="47" t="s">
@@ -2269,7 +2353,9 @@
       <c r="B98" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C98" s="12"/>
+      <c r="C98" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="D98" s="12"/>
       <c r="E98" s="12"/>
       <c r="F98" s="47" t="s">
@@ -2283,7 +2369,9 @@
         <v>101</v>
       </c>
       <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
+      <c r="D99" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="E99" s="12"/>
       <c r="F99" s="47" t="s">
         <v>102</v>
@@ -2297,7 +2385,9 @@
       </c>
       <c r="C100" s="12"/>
       <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
+      <c r="E100" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="F100" s="47" t="s">
         <v>100</v>
       </c>
@@ -2311,7 +2401,9 @@
       <c r="B101" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="C101" s="12"/>
+      <c r="C101" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="D101" s="12"/>
       <c r="E101" s="12"/>
       <c r="F101" s="47" t="s">
@@ -2324,7 +2416,9 @@
       <c r="B102" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="C102" s="12"/>
+      <c r="C102" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="D102" s="12"/>
       <c r="E102" s="12"/>
       <c r="F102" s="47" t="s">
@@ -2338,7 +2432,9 @@
         <v>10</v>
       </c>
       <c r="C103" s="12"/>
-      <c r="D103" s="12"/>
+      <c r="D103" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="E103" s="12"/>
       <c r="F103" s="47" t="s">
         <v>85</v>
@@ -2351,7 +2447,9 @@
         <v>84</v>
       </c>
       <c r="C104" s="12"/>
-      <c r="D104" s="12"/>
+      <c r="D104" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="E104" s="12"/>
       <c r="F104" s="47" t="s">
         <v>8</v>
@@ -2368,7 +2466,9 @@
       </c>
       <c r="C105" s="45"/>
       <c r="D105" s="45"/>
-      <c r="E105" s="45"/>
+      <c r="E105" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="F105" s="47" t="s">
         <v>88</v>
       </c>
@@ -2380,7 +2480,9 @@
         <v>87</v>
       </c>
       <c r="C106" s="45"/>
-      <c r="D106" s="45"/>
+      <c r="D106" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="E106" s="45"/>
       <c r="F106" s="47" t="s">
         <v>13</v>
@@ -2394,7 +2496,9 @@
       </c>
       <c r="C107" s="45"/>
       <c r="D107" s="45"/>
-      <c r="E107" s="45"/>
+      <c r="E107" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="F107" s="47" t="s">
         <v>89</v>
       </c>
@@ -2407,7 +2511,9 @@
       </c>
       <c r="C108" s="45"/>
       <c r="D108" s="45"/>
-      <c r="E108" s="45"/>
+      <c r="E108" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="F108" s="47" t="s">
         <v>11</v>
       </c>
@@ -2421,7 +2527,9 @@
       <c r="B109" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="C109" s="45"/>
+      <c r="C109" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="D109" s="45"/>
       <c r="E109" s="45"/>
       <c r="F109" s="47" t="s">
@@ -2436,7 +2544,9 @@
       </c>
       <c r="C110" s="45"/>
       <c r="D110" s="45"/>
-      <c r="E110" s="45"/>
+      <c r="E110" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="F110" s="47" t="s">
         <v>70</v>
       </c>
@@ -2449,7 +2559,9 @@
       </c>
       <c r="C111" s="45"/>
       <c r="D111" s="45"/>
-      <c r="E111" s="45"/>
+      <c r="E111" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="F111" s="47" t="s">
         <v>91</v>
       </c>
@@ -2461,7 +2573,9 @@
         <v>50</v>
       </c>
       <c r="C112" s="45"/>
-      <c r="D112" s="45"/>
+      <c r="D112" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="E112" s="45"/>
       <c r="F112" s="47" t="s">
         <v>92</v>
@@ -2478,7 +2592,9 @@
       </c>
       <c r="C113" s="45"/>
       <c r="D113" s="45"/>
-      <c r="E113" s="45"/>
+      <c r="E113" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="F113" s="47" t="s">
         <v>69</v>
       </c>
@@ -2491,7 +2607,9 @@
       </c>
       <c r="C114" s="45"/>
       <c r="D114" s="45"/>
-      <c r="E114" s="45"/>
+      <c r="E114" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="F114" s="47" t="s">
         <v>100</v>
       </c>
@@ -2504,7 +2622,9 @@
       </c>
       <c r="C115" s="45"/>
       <c r="D115" s="45"/>
-      <c r="E115" s="45"/>
+      <c r="E115" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="F115" s="47" t="s">
         <v>98</v>
       </c>
@@ -2517,7 +2637,9 @@
       </c>
       <c r="C116" s="45"/>
       <c r="D116" s="45"/>
-      <c r="E116" s="45"/>
+      <c r="E116" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="F116" s="47" t="s">
         <v>51</v>
       </c>
@@ -2528,22 +2650,22 @@
       <c r="H117" s="11"/>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C118" s="49" t="s">
+      <c r="C118" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="D118" s="49"/>
+      <c r="D118" s="53"/>
       <c r="E118" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A120" s="49" t="s">
+      <c r="A120" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="B120" s="49"/>
-      <c r="C120" s="49"/>
-      <c r="D120" s="49"/>
-      <c r="E120" s="49"/>
+      <c r="B120" s="53"/>
+      <c r="C120" s="53"/>
+      <c r="D120" s="53"/>
+      <c r="E120" s="53"/>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="59" t="s">
@@ -2909,21 +3031,16 @@
       <c r="D146" s="11"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C148" s="49" t="s">
+      <c r="C148" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="D148" s="49"/>
+      <c r="D148" s="53"/>
       <c r="E148" s="8">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="A120:E120"/>
     <mergeCell ref="C148:D148"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="C13:D13"/>
@@ -2940,6 +3057,11 @@
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="A40:E40"/>
     <mergeCell ref="A121:F121"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="A120:E120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
